--- a/data/trans_orig/P20D2_R_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_R_2023-Clase-trans_orig.xlsx
@@ -741,7 +741,7 @@
         <v>12771</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8835</v>
+        <v>9016</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>13925</v>
@@ -750,7 +750,7 @@
         <v>0.9170995157830916</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.634467781926081</v>
+        <v>0.647503189481046</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -762,19 +762,19 @@
         <v>1691</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3077</v>
+        <v>3085</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4474628313059856</v>
+        <v>0.4474628313059857</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09855422295537063</v>
+        <v>0.09928638232991679</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8142125155362088</v>
+        <v>0.8163642232559113</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -783,19 +783,19 @@
         <v>14461</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9841</v>
+        <v>10207</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16746</v>
+        <v>16983</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8168439377316783</v>
+        <v>0.8168439377316781</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5558596153383519</v>
+        <v>0.5765338451699317</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9459013509610502</v>
+        <v>0.9592875894088536</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5090</v>
+        <v>4909</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08290048421690842</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3655322180739192</v>
+        <v>0.3524968105189541</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>2088</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5525371686940144</v>
+        <v>0.5525371686940143</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1857874844637914</v>
+        <v>0.1852151030489474</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9016115985724882</v>
+        <v>0.9007136176700833</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -854,19 +854,19 @@
         <v>3243</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>958</v>
+        <v>721</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7863</v>
+        <v>7497</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1831560622683218</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05409864903894991</v>
+        <v>0.0407124105911464</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4441403846616479</v>
+        <v>0.4234661548300684</v>
       </c>
     </row>
     <row r="6">
@@ -958,16 +958,16 @@
         <v>5702</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2528</v>
+        <v>2822</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>7717</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7389337447241584</v>
+        <v>0.7389337447241585</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3276443424765396</v>
+        <v>0.3656978213598747</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3266</v>
+        <v>3187</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06910497650029103</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3332735839577205</v>
+        <v>0.3251930832147258</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -1000,19 +1000,19 @@
         <v>6379</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3001</v>
+        <v>3120</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10743</v>
+        <v>10570</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3641956283704934</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1713038042362589</v>
+        <v>0.1781287695087881</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6133284234914721</v>
+        <v>0.603470330820975</v>
       </c>
     </row>
     <row r="8">
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5189</v>
+        <v>4895</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2610662552758415</v>
+        <v>0.2610662552758414</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6723556575234603</v>
+        <v>0.6343021786401248</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -1050,7 +1050,7 @@
         <v>9122</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6533</v>
+        <v>6612</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>9799</v>
@@ -1059,7 +1059,7 @@
         <v>0.930895023499709</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6667264160422789</v>
+        <v>0.6748069167852745</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1071,19 +1071,19 @@
         <v>11137</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6773</v>
+        <v>6946</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14515</v>
+        <v>14396</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6358043716295066</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3866715765085282</v>
+        <v>0.3965296691790252</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8286961957637413</v>
+        <v>0.821871230491212</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>12091</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7191</v>
+        <v>7369</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15756</v>
+        <v>15700</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6846988468286436</v>
+        <v>0.6846988468286437</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4072159271011803</v>
+        <v>0.4173217437743673</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8922088620590496</v>
+        <v>0.8890537258388685</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2780</v>
+        <v>2348</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1385496411877232</v>
+        <v>0.1385496411877231</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5901712713526664</v>
+        <v>0.4983426938834029</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1217,19 +1217,19 @@
         <v>12744</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7763</v>
+        <v>7966</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17012</v>
+        <v>16967</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5696821109453797</v>
+        <v>0.5696821109453799</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3470457888594013</v>
+        <v>0.3560814080825105</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7604689242538658</v>
+        <v>0.758469938022759</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>5568</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1903</v>
+        <v>1959</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10468</v>
+        <v>10290</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3153011531713563</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1077911379409503</v>
+        <v>0.1109462741611313</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5927840728988224</v>
+        <v>0.5826782562256327</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1267,7 +1267,7 @@
         <v>4058</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1933</v>
+        <v>2363</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>4711</v>
@@ -1276,7 +1276,7 @@
         <v>0.8614503588122768</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4103718364559293</v>
+        <v>0.5016573061165973</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1288,19 +1288,19 @@
         <v>9626</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5358</v>
+        <v>5403</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14607</v>
+        <v>14404</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4303178890546202</v>
+        <v>0.4303178890546203</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2395310757461342</v>
+        <v>0.2415300619772411</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6529542111405988</v>
+        <v>0.6439185919174893</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>9811</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5863</v>
+        <v>5731</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12585</v>
+        <v>12636</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.679690005119622</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4061439164247859</v>
+        <v>0.3970399807544343</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8718671626145515</v>
+        <v>0.8753439572291981</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1413,19 +1413,19 @@
         <v>5604</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3023</v>
+        <v>2889</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8283</v>
+        <v>7997</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5319465959266092</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.28700043624584</v>
+        <v>0.2742933683300223</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7863010380068856</v>
+        <v>0.7591444250589359</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -1434,19 +1434,19 @@
         <v>15415</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10760</v>
+        <v>10941</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18906</v>
+        <v>19295</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6173586083783966</v>
+        <v>0.6173586083783968</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.430916684110438</v>
+        <v>0.4381731115760445</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7571980286885065</v>
+        <v>0.7727556631150423</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>4624</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1850</v>
+        <v>1799</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8572</v>
+        <v>8704</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.320309994880378</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1281328373854485</v>
+        <v>0.1246560427708018</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.593856083575214</v>
+        <v>0.6029600192455659</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1484,19 +1484,19 @@
         <v>4930</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2251</v>
+        <v>2537</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7511</v>
+        <v>7645</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4680534040733909</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2136989619931142</v>
+        <v>0.240855574941064</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7129995637541601</v>
+        <v>0.725706631669978</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -1505,19 +1505,19 @@
         <v>9554</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6063</v>
+        <v>5674</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14209</v>
+        <v>14028</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3826413916216033</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2428019713114936</v>
+        <v>0.2272443368849575</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5690833158895621</v>
+        <v>0.5618268884239549</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>8601</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4560</v>
+        <v>4717</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11720</v>
+        <v>11678</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6161477943498174</v>
+        <v>0.6161477943498173</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3266362103025943</v>
+        <v>0.3379227701915475</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8395362371436104</v>
+        <v>0.8365112064906599</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1630,19 +1630,19 @@
         <v>6922</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3939</v>
+        <v>3692</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9956</v>
+        <v>9977</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4456003127410691</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2535691586771102</v>
+        <v>0.2376415202097395</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6408694028105633</v>
+        <v>0.6422464404138174</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1651,19 +1651,19 @@
         <v>15524</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10696</v>
+        <v>11030</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20311</v>
+        <v>20638</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5263202546133547</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3626374553084134</v>
+        <v>0.3739664391488576</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6886376339791397</v>
+        <v>0.6997144045389815</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>5359</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2240</v>
+        <v>2282</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9400</v>
+        <v>9243</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3838522056501826</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1604637628563909</v>
+        <v>0.1634887935093403</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6733637896974052</v>
+        <v>0.6620772298084526</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -1701,19 +1701,19 @@
         <v>8613</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5579</v>
+        <v>5558</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11596</v>
+        <v>11843</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.554399687258931</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3591305971894367</v>
+        <v>0.3577535595861828</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7464308413228897</v>
+        <v>0.7623584797902608</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -1722,19 +1722,19 @@
         <v>13971</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9184</v>
+        <v>8857</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18799</v>
+        <v>18465</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4736797453866452</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3113623660208603</v>
+        <v>0.3002855954610187</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6373625446915866</v>
+        <v>0.6260335608511424</v>
       </c>
     </row>
     <row r="18">
@@ -1839,19 +1839,19 @@
         <v>7346</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3672</v>
+        <v>4161</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9886</v>
+        <v>10083</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.6796106432862197</v>
+        <v>0.6796106432862195</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3396845279787042</v>
+        <v>0.3849348725377898</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9146468398984809</v>
+        <v>0.93284011047177</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1860,19 +1860,19 @@
         <v>7346</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4135</v>
+        <v>4072</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10116</v>
+        <v>10249</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6491374101323839</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.365433986730044</v>
+        <v>0.3598495567322987</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8939498669283558</v>
+        <v>0.905688948025083</v>
       </c>
     </row>
     <row r="20">
@@ -1902,19 +1902,19 @@
         <v>3463</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>923</v>
+        <v>726</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7137</v>
+        <v>6648</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3203893567137804</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08535316010151905</v>
+        <v>0.06715988952822965</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6603154720212959</v>
+        <v>0.6150651274622103</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -1923,19 +1923,19 @@
         <v>3970</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1200</v>
+        <v>1067</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7181</v>
+        <v>7244</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.3508625898676162</v>
+        <v>0.3508625898676161</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1060501330716446</v>
+        <v>0.09431105197491695</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6345660132699561</v>
+        <v>0.6401504432677013</v>
       </c>
     </row>
     <row r="21">
@@ -2027,19 +2027,19 @@
         <v>48976</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>40858</v>
+        <v>41639</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55088</v>
+        <v>55572</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.718098202446821</v>
+        <v>0.7180982024468212</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5990664494158288</v>
+        <v>0.6105251459813292</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8077131969672614</v>
+        <v>0.8148163878618275</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -2048,19 +2048,19 @@
         <v>22893</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16634</v>
+        <v>16484</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30780</v>
+        <v>30664</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.41496926146312</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3015175824941344</v>
+        <v>0.2987964858130926</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5579389706201313</v>
+        <v>0.5558264838279845</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>88</v>
@@ -2069,19 +2069,19 @@
         <v>71869</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>61042</v>
+        <v>60944</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>81555</v>
+        <v>82138</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5825468419754312</v>
+        <v>0.5825468419754313</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4947905727772142</v>
+        <v>0.4939975555628019</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6610616191534447</v>
+        <v>0.6657889648857095</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>19226</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13114</v>
+        <v>12630</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>27344</v>
+        <v>26563</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.281901797553179</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.192286803032738</v>
+        <v>0.1851836121381725</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4009335505841712</v>
+        <v>0.3894748540186707</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>49</v>
@@ -2119,19 +2119,19 @@
         <v>32275</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>24388</v>
+        <v>24504</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>38534</v>
+        <v>38684</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.58503073853688</v>
+        <v>0.5850307385368801</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4420610293798686</v>
+        <v>0.4441735161720154</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6984824175058656</v>
+        <v>0.7012035141869073</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>70</v>
@@ -2140,19 +2140,19 @@
         <v>51501</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>41815</v>
+        <v>41232</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>62328</v>
+        <v>62426</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.4174531580245688</v>
+        <v>0.4174531580245689</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3389383808465551</v>
+        <v>0.3342110351142905</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5052094272227857</v>
+        <v>0.5060024444371982</v>
       </c>
     </row>
     <row r="24">
